--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625350.851328241</v>
+        <v>2621338.241314248</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.8756750054773</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>246.4253818487004</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>58.28185552386313</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.0776667155537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>254.9075279979801</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>11.2666423607402</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0490530904424</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>108.9520512661141</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>278.9999183401159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>174.0445447513317</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.7029035467952</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634833</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>78.6882778203391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>108.3613954702488</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161283</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>25.52471385612602</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2292,16 +2292,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
-        <v>142.3575218158275</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>59.66990246485226</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>107.5034532829751</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>61.97958965902472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>15.09910835322342</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>61.97958965902562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.7076464771371</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>71.60395572454081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>105.5518343409904</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535337</v>
+        <v>1774.969111598457</v>
       </c>
       <c r="C2" t="n">
-        <v>1904.487375535337</v>
+        <v>1406.006594658045</v>
       </c>
       <c r="D2" t="n">
-        <v>1546.221676928586</v>
+        <v>1047.740896051295</v>
       </c>
       <c r="E2" t="n">
-        <v>1160.433424330342</v>
+        <v>661.9526434530503</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>655.0071427038469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535337</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2471.230932223169</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.230932223169</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.230932223169</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.230932223169</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>3036.502954734814</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>3036.502954734814</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>3036.502954734814</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>2808.513403836797</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>2652.879397053409</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.660964416653</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C5" t="n">
-        <v>1418.660964416653</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D5" t="n">
-        <v>1060.395265809902</v>
+        <v>1289.739170804069</v>
       </c>
       <c r="E5" t="n">
-        <v>674.6070132116581</v>
+        <v>903.950918205825</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>492.9650134162175</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>77.89256326121392</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416653</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.0994634021637</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C7" t="n">
-        <v>185.0994634021637</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="D7" t="n">
-        <v>185.0994634021637</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="E7" t="n">
-        <v>185.0994634021637</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>185.0994634021637</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>185.0994634021637</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>474.5166334391243</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>185.0994634021637</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>185.0994634021637</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.0994634021637</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>194.5422403324653</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>84.48966329598638</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.58875505237</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.903689733083</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.903689733083</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574645</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218345</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877115</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133551</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>234.2149530574645</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.2149530574645</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>806.8386896933887</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>119.599202296584</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>119.599202296584</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3192.420589669523</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>4077.535672747196</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>3822.85118454131</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3822.85118454131</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3594.861633643292</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3374.069054499762</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2386.690454827884</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S25" t="n">
-        <v>2386.690454827884</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>2167.088989850826</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1878.013763195024</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1623.329274989137</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.912104952176</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2644.045655650153</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2644.045655650153</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3241.424143276705</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>451.6888124356582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3031.88921499615</v>
+        <v>580.0655846733345</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.88921499615</v>
+        <v>411.1294017454276</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>3662.319809867937</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>3434.33025896992</v>
+        <v>982.5066286471043</v>
       </c>
       <c r="Y34" t="n">
-        <v>3213.53767982639</v>
+        <v>761.7140495035742</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>94.56320294380271</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3012.408157764291</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3012.408157764291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2862.291518351956</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2714.378424769563</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2567.488477271652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2400.292377986532</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3194.056622594531</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7560,7 +7560,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,16 +7593,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2307.590151828076</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2307.590151828076</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
         <v>2018.514925172274</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1063.573343591573</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>894.6371606636665</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>744.5205212513307</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>596.6074276689376</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>449.7174801710272</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>282.5213808859071</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1466.014387565343</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1245.221808421813</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>110.223257881846</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.4693302300317</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>55.74112246243953</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
-        <v>143.8269525734167</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.70534424526943</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>37.91759473995617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>271.4238899833676</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>78.31512318719827</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>109.4223302771038</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34.74287850523351</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189185</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189208</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
+        <v>455302.731225981</v>
+      </c>
+      <c r="D6" t="n">
         <v>455302.7312259806</v>
       </c>
-      <c r="D6" t="n">
-        <v>455302.7312259807</v>
-      </c>
       <c r="E6" t="n">
-        <v>203135.704148851</v>
+        <v>202788.3248944938</v>
       </c>
       <c r="F6" t="n">
-        <v>528548.1659562062</v>
+        <v>528200.786701849</v>
       </c>
       <c r="G6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.7867018491</v>
       </c>
       <c r="H6" t="n">
-        <v>528548.1659562062</v>
+        <v>528200.7867018491</v>
       </c>
       <c r="I6" t="n">
-        <v>528548.1659562058</v>
+        <v>528200.7867018485</v>
       </c>
       <c r="J6" t="n">
-        <v>311016.9635589284</v>
+        <v>310669.5843045714</v>
       </c>
       <c r="K6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.786701849</v>
       </c>
       <c r="L6" t="n">
-        <v>528548.1659562059</v>
+        <v>528200.7867018485</v>
       </c>
       <c r="M6" t="n">
-        <v>443493.1380206941</v>
+        <v>443145.7587663367</v>
       </c>
       <c r="N6" t="n">
-        <v>528548.1659562058</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="O6" t="n">
-        <v>528548.1659562062</v>
+        <v>528200.7867018488</v>
       </c>
       <c r="P6" t="n">
-        <v>528548.1659562063</v>
+        <v>528200.7867018488</v>
       </c>
     </row>
   </sheetData>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.00037073623412</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>164.4963438047531</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.50698663654109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>151.9685177437314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>283.3411220265803</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>14.88174980530042</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>123.7059618238784</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>272.9783188061477</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>70.24105037729714</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>78.09309857249633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980529956</v>
       </c>
     </row>
     <row r="11">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138797</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>697.0074482175634</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420754</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>195.7502366106283</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742437</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,37 +33025,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,13 +33760,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>324.5433647340733</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>565.6657361342301</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754087</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>61.77582919629807</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>98.78558167418976</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949776</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>182.409330812055</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2621338.241314248</v>
+        <v>2623098.771617032</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>246.4253818487004</v>
+        <v>341.1555902001444</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386313</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.08802744677254</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>11.2666423607402</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>249.5456553076238</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.5522128412688</v>
+        <v>63.9250279877516</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661141</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>78.29684714663985</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.45803047044426</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467952</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634833</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.3613954702488</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>41.55695577161283</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.969111598457</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C2" t="n">
-        <v>1406.006594658045</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="D2" t="n">
-        <v>1047.740896051295</v>
+        <v>1143.427975194167</v>
       </c>
       <c r="E2" t="n">
-        <v>661.9526434530503</v>
+        <v>757.6397225959231</v>
       </c>
       <c r="F2" t="n">
-        <v>655.0071427038469</v>
+        <v>750.6942218467196</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.568951662578</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>2161.568951662578</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879448</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600379</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477022</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653091</v>
+        <v>453.9210898955491</v>
       </c>
       <c r="F4" t="n">
-        <v>125.3826775673987</v>
+        <v>307.0311423976387</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723577</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.00486941082</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C5" t="n">
-        <v>1648.00486941082</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D5" t="n">
-        <v>1289.739170804069</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E5" t="n">
-        <v>903.950918205825</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>492.9650134162175</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>77.89256326121392</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3073.539503116623</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2742.476615773052</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2389.707960502938</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.4459618444147</v>
+        <v>450.1356741135893</v>
       </c>
       <c r="C7" t="n">
-        <v>349.5097789165078</v>
+        <v>281.1994911856824</v>
       </c>
       <c r="D7" t="n">
-        <v>199.3931395041721</v>
+        <v>131.0828517733467</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.784138943829</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>631.784138943829</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746544</v>
+        <v>631.784138943829</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796274</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392158</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324653</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598638</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="F8" t="n">
-        <v>77.5441625467829</v>
+        <v>187.59673958326</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943749</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.8386896933887</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.384895601573</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613761</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,25 +5506,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,34 +5986,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
         <v>261.0127623330919</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6539,7 +6539,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733345</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454276</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471043</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035742</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,7 +7487,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7602,19 +7602,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.223257881846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>139.4693302300317</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.54986409393102</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.54986409393102</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308137</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782037.8688308136</v>
+        <v>782037.8688308138</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782037.8688308138</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520045</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405256</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405247</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189185</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26438,7 +26438,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.731225981</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259806</v>
+        <v>455302.7312259811</v>
       </c>
       <c r="E6" t="n">
-        <v>202788.3248944938</v>
+        <v>203100.9662234149</v>
       </c>
       <c r="F6" t="n">
-        <v>528200.786701849</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="G6" t="n">
-        <v>528200.7867018491</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="H6" t="n">
-        <v>528200.7867018491</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="I6" t="n">
-        <v>528200.7867018485</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="J6" t="n">
-        <v>310669.5843045714</v>
+        <v>310982.2256334923</v>
       </c>
       <c r="K6" t="n">
-        <v>528200.786701849</v>
+        <v>528513.4280307702</v>
       </c>
       <c r="L6" t="n">
-        <v>528200.7867018485</v>
+        <v>528513.42803077</v>
       </c>
       <c r="M6" t="n">
-        <v>443145.7587663367</v>
+        <v>443458.4000952581</v>
       </c>
       <c r="N6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307699</v>
       </c>
       <c r="O6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.4280307698</v>
       </c>
       <c r="P6" t="n">
-        <v>528200.7867018488</v>
+        <v>528513.42803077</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>164.4963438047531</v>
+        <v>69.766135453309</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>283.3411220265803</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.449516651278202</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>14.88174980530042</v>
+        <v>82.50893465881757</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061477</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>332.6248785068136</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661467</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980529956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
